--- a/Data/Processing/2024-02-02/ROUTE.xlsx
+++ b/Data/Processing/2024-02-02/ROUTE.xlsx
@@ -819,7 +819,7 @@
         <v>1253.81</v>
       </c>
       <c r="D6">
-        <v>1159.79</v>
+        <v>1159.78</v>
       </c>
       <c r="E6">
         <v>1241.16</v>
@@ -849,7 +849,7 @@
         <v>-0.96</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>8.01</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>1225.27</v>
       </c>
       <c r="E7">
-        <v>1260.82</v>
+        <v>1260.81</v>
       </c>
       <c r="F7">
         <v>1241.16</v>
@@ -925,7 +925,7 @@
         <v>1251.33</v>
       </c>
       <c r="F8">
-        <v>1260.82</v>
+        <v>1260.81</v>
       </c>
       <c r="G8">
         <v>313375</v>
@@ -943,7 +943,7 @@
         <v>-2.29</v>
       </c>
       <c r="L8">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="M8">
         <v>1.06</v>
@@ -2802,7 +2802,7 @@
         <v>4.89</v>
       </c>
       <c r="O45">
-        <v>1292.447272727273</v>
+        <v>1292.447045454545</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>5.63</v>
       </c>
       <c r="O46">
-        <v>1294.448636363636</v>
+        <v>1294.448409090909</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>2.21</v>
       </c>
       <c r="O47">
-        <v>1296.344090909091</v>
+        <v>1296.343863636364</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>2.69</v>
       </c>
       <c r="O48">
-        <v>1298.436136363636</v>
+        <v>1298.435909090909</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>2.68</v>
       </c>
       <c r="O49">
-        <v>1300.126363636364</v>
+        <v>1300.126136363636</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>2.12</v>
       </c>
       <c r="O50">
-        <v>1300.763863636364</v>
+        <v>1300.763636363637</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>1.99</v>
       </c>
       <c r="O52">
-        <v>1300.135454545454</v>
+        <v>1300.135454545455</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>2.58</v>
       </c>
       <c r="O56">
-        <v>1297.362954545455</v>
+        <v>1297.362954545454</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>1.98</v>
       </c>
       <c r="O66">
-        <v>1286.177954545455</v>
+        <v>1286.177954545454</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -3952,7 +3952,7 @@
         <v>4.04</v>
       </c>
       <c r="O68">
-        <v>1288.657045454546</v>
+        <v>1288.657045454545</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>3.58</v>
       </c>
       <c r="O77">
-        <v>1311.270454545454</v>
+        <v>1311.270454545455</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.33</v>
       </c>
       <c r="O84">
-        <v>1333.511136363637</v>
+        <v>1333.511136363636</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>2.79</v>
       </c>
       <c r="O94">
-        <v>1394.425454545455</v>
+        <v>1394.425454545454</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>1432.082954545454</v>
+        <v>1432.082954545455</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>2.39</v>
       </c>
       <c r="O103">
-        <v>1462.302954545455</v>
+        <v>1462.302954545454</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1604.32</v>
       </c>
       <c r="C109">
-        <v>1685.99</v>
+        <v>1685.98</v>
       </c>
       <c r="D109">
         <v>1604.32</v>
@@ -7102,7 +7102,7 @@
         <v>1.92</v>
       </c>
       <c r="O131">
-        <v>1536.530454545454</v>
+        <v>1536.530454545455</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -8952,7 +8952,7 @@
         <v>1.3</v>
       </c>
       <c r="O168">
-        <v>1543.067272727273</v>
+        <v>1543.067272727272</v>
       </c>
       <c r="P168">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>1.18</v>
       </c>
       <c r="O174">
-        <v>1553.679545454545</v>
+        <v>1553.679545454546</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>1.41</v>
       </c>
       <c r="O184">
-        <v>1560.801818181818</v>
+        <v>1560.801818181819</v>
       </c>
       <c r="P184">
         <v>1</v>
@@ -10352,7 +10352,7 @@
         <v>0.48</v>
       </c>
       <c r="O196">
-        <v>1561.144545454545</v>
+        <v>1561.144545454546</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0.89</v>
       </c>
       <c r="O207">
-        <v>1554.966136363637</v>
+        <v>1554.966136363636</v>
       </c>
       <c r="P207">
         <v>1</v>
@@ -11402,7 +11402,7 @@
         <v>3.25</v>
       </c>
       <c r="O217">
-        <v>1558.182954545454</v>
+        <v>1558.182954545455</v>
       </c>
       <c r="P217">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>3.64</v>
       </c>
       <c r="O228">
-        <v>1573.692954545455</v>
+        <v>1573.692954545454</v>
       </c>
       <c r="P228">
         <v>0</v>
@@ -12601,7 +12601,7 @@
         <v>2.08</v>
       </c>
       <c r="O233">
-        <v>1582.820227272728</v>
+        <v>1582.820227272727</v>
       </c>
       <c r="P233">
         <v>0</v>
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="O234">
-        <v>1584.944772727272</v>
+        <v>1584.944772727273</v>
       </c>
       <c r="P234">
         <v>0</v>
@@ -13350,7 +13350,7 @@
         <v>2.86</v>
       </c>
       <c r="O240">
-        <v>1592.708636363637</v>
+        <v>1592.708636363636</v>
       </c>
       <c r="P240">
         <v>1</v>
